--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam4-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam4-Itgam.xlsx
@@ -525,25 +525,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.346040666666667</v>
+        <v>0.3732763333333333</v>
       </c>
       <c r="H2">
-        <v>7.038122</v>
+        <v>1.119829</v>
       </c>
       <c r="I2">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="J2">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,10 +552,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>57.20386266666666</v>
+        <v>0.01393633333333333</v>
       </c>
       <c r="N2">
-        <v>171.611588</v>
+        <v>0.041809</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>134.2025881064151</v>
+        <v>0.005202103406777778</v>
       </c>
       <c r="R2">
-        <v>1207.823292957736</v>
+        <v>0.046818930661</v>
       </c>
       <c r="S2">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="T2">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6683169999999999</v>
+        <v>0.668317</v>
       </c>
       <c r="H3">
         <v>2.004951</v>
       </c>
       <c r="I3">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="J3">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,10 +614,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>57.20386266666666</v>
+        <v>0.01393633333333333</v>
       </c>
       <c r="N3">
-        <v>171.611588</v>
+        <v>0.041809</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>38.23031388579866</v>
+        <v>0.009313888484333335</v>
       </c>
       <c r="R3">
-        <v>344.0728249721879</v>
+        <v>0.08382499635900001</v>
       </c>
       <c r="S3">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="T3">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06639399999999999</v>
+        <v>0.008629333333333334</v>
       </c>
       <c r="H4">
-        <v>0.199182</v>
+        <v>0.025888</v>
       </c>
       <c r="I4">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627913</v>
       </c>
       <c r="J4">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627911</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,10 +676,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>57.20386266666666</v>
+        <v>0.01393633333333333</v>
       </c>
       <c r="N4">
-        <v>171.611588</v>
+        <v>0.041809</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>3.797993257890666</v>
+        <v>0.0001202612657777778</v>
       </c>
       <c r="R4">
-        <v>34.181939321016</v>
+        <v>0.001082351392</v>
       </c>
       <c r="S4">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627913</v>
       </c>
       <c r="T4">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627911</v>
       </c>
     </row>
   </sheetData>
